--- a/excel/assignments/Assignment16_Workbook.xlsx
+++ b/excel/assignments/Assignment16_Workbook.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="2012 Sales" sheetId="1" r:id="rId1"/>
+    <sheet name="2012 Verkäufe" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,48 +21,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
   <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Order Amount</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Albertson, Kathy</t>
   </si>
   <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>Brennan, Michael</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>Davis, William</t>
   </si>
   <si>
-    <t>South</t>
-  </si>
-  <si>
     <t>Dumlao, Richard</t>
   </si>
   <si>
@@ -75,10 +45,40 @@
     <t>Thompson, Shannon</t>
   </si>
   <si>
-    <t>North</t>
-  </si>
-  <si>
     <t>Walters, Chris</t>
+  </si>
+  <si>
+    <t>Verkäufer</t>
+  </si>
+  <si>
+    <t>Konto</t>
+  </si>
+  <si>
+    <t>Monat</t>
+  </si>
+  <si>
+    <t>Osten</t>
+  </si>
+  <si>
+    <t>Westen</t>
+  </si>
+  <si>
+    <t>Norden</t>
+  </si>
+  <si>
+    <t>Süden</t>
+  </si>
+  <si>
+    <t>Januar</t>
+  </si>
+  <si>
+    <t>Februar</t>
+  </si>
+  <si>
+    <t>März</t>
+  </si>
+  <si>
+    <t>Umsatz</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,9 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,13 +204,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -222,11 +222,11 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -281,11 +281,11 @@
     <sortCondition ref="A31"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Salesperson" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="Verkäufer" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Region" dataDxfId="3"/>
-    <tableColumn id="3" name="Account" dataDxfId="2"/>
-    <tableColumn id="4" name="Order Amount" dataDxfId="1"/>
-    <tableColumn id="5" name="Month" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="3" name="Konto" dataDxfId="2"/>
+    <tableColumn id="4" name="Umsatz" dataDxfId="0"/>
+    <tableColumn id="5" name="Monat" totalsRowFunction="count" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,697 +570,697 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="11" customWidth="1"/>
     <col min="7" max="17" width="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>29386</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="12">
         <v>925</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
         <v>74830</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="12">
         <v>875</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>90099</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="12">
         <v>500</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>74830</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="12">
         <v>350</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>82853</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="12">
         <v>400</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>72949</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="12">
         <v>850</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
         <v>90044</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="12">
         <v>1500</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>82853</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="12">
         <v>550</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>72949</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="12">
         <v>400</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>55223</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="12">
         <v>235</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>10354</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="12">
         <v>850</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5">
         <v>50192</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="12">
         <v>600</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
         <v>27589</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="12">
         <v>250</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <v>67275</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="12">
         <v>400</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5">
         <v>41828</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="12">
         <v>965</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5">
         <v>87543</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="12">
         <v>125</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>9</v>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5">
         <v>97446</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="12">
         <v>1500</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>9</v>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5">
         <v>41400</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="12">
         <v>305</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5">
         <v>30974</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="12">
         <v>1350</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>7</v>
+      <c r="E20" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="5">
         <v>41400</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="12">
         <v>435</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>8</v>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" s="5">
         <v>30974</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="12">
         <v>550</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>8</v>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5">
         <v>30974</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="12">
         <v>425</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5">
         <v>78532</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="12">
         <v>765</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>7</v>
+      <c r="E24" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5">
         <v>78532</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="12">
         <v>150</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>8</v>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5">
         <v>65532</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="12">
         <v>425</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>8</v>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C27" s="5">
         <v>78532</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="12">
         <v>350</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>9</v>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5">
         <v>91987</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="12">
         <v>875</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>7</v>
+      <c r="E28" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29" s="5">
         <v>91041</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="12">
         <v>265</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>7</v>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>91987</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="12">
         <v>375</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>8</v>
+      <c r="E30" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5">
         <v>91041</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="12">
         <v>1345</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>8</v>
+      <c r="E31" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C32" s="5">
         <v>91987</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="12">
         <v>300</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
+      <c r="E32" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" s="5">
         <v>55667</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="12">
         <v>225</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>7</v>
+      <c r="E33" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" s="5">
         <v>54393</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="12">
         <v>105</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>7</v>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" s="5">
         <v>40028</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="12">
         <v>25</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>7</v>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" s="5">
         <v>55667</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="12">
         <v>155</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>8</v>
+      <c r="E36" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" s="5">
         <v>54393</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="12">
         <v>2600</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>8</v>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" s="5">
         <v>54393</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="12">
         <v>225</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
+      <c r="E38" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" s="5">
         <v>55667</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="12">
         <v>785</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>9</v>
+      <c r="E39" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="10">
+      <c r="A40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="9">
         <v>27589</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="13">
         <v>255</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>9</v>
+      <c r="E40" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
